--- a/Estimacion_de_costos.xlsx
+++ b/Estimacion_de_costos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schnaidercoimbradellin/Library/Mobile Documents/com~apple~CloudDocs/Desktop/DAW/Abastos/Proyecto/U08/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35FD88C-EC9B-6E43-8855-4A9ECFE54B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA5A8E1-66C1-F441-987E-ED5C268375E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{8A44CA47-1542-0743-B832-C5E2B3E7F0E6}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
